--- a/Модуль_6_таблица_тест_кейсов.xlsx
+++ b/Модуль_6_таблица_тест_кейсов.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t>passed</t>
   </si>
@@ -489,6 +489,9 @@
 нажать кнопку ""Сохранить";
 нажать ""Моя страница;
 нажать "Показать подробную информацию"</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1357,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1666,7 +1669,9 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
@@ -1702,7 +1707,9 @@
       <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H9" s="20"/>
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
@@ -2775,7 +2782,9 @@
       <c r="F36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="21"/>
       <c r="J36" s="20"/>
@@ -2811,7 +2820,9 @@
       <c r="F37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H37" s="20"/>
       <c r="I37" s="21"/>
       <c r="J37" s="20"/>
